--- a/doc/roadmap.xlsx
+++ b/doc/roadmap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Refactor :</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Too many arguments (%s/%s)</t>
   </si>
   <si>
+    <t>Same as line 14 ?</t>
+  </si>
+  <si>
     <t>1-2 week</t>
   </si>
   <si>
@@ -28,6 +31,9 @@
     <t>Too many local variables (%s/%s)</t>
   </si>
   <si>
+    <t>Only related to python ?</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -64,9 +70,15 @@
     <t>Arguments number differs from %s function</t>
   </si>
   <si>
+    <t>Used when a function call doesn't use the same number of argumets as in its definition.</t>
+  </si>
+  <si>
     <t>Assigning to function call which only returns None</t>
   </si>
   <si>
+    <t>Used when an assigment is done on a function call but the inferred function doesn't return anything.</t>
+  </si>
+  <si>
     <t>1 week</t>
   </si>
   <si>
@@ -76,18 +88,30 @@
     <t>Unused argument %r</t>
   </si>
   <si>
+    <t>Used when an argument is never used.</t>
+  </si>
+  <si>
     <t>Unused import %s</t>
   </si>
   <si>
+    <t>Used when script imported is never used.</t>
+  </si>
+  <si>
     <t>Unused variable %r</t>
   </si>
   <si>
+    <t>Used when a variable is never accessed.</t>
+  </si>
+  <si>
     <t>0-1 week</t>
   </si>
   <si>
     <t>Use of the exec statement</t>
   </si>
   <si>
+    <t>Use when exec_str is call (on non-constante string ?).</t>
+  </si>
+  <si>
     <t>Use of the `` operator</t>
   </si>
   <si>
@@ -103,22 +127,40 @@
     <t>%s %r has no %r member</t>
   </si>
   <si>
+    <t>Used when a variable is accessed for a nonexistent member.</t>
+  </si>
+  <si>
     <t>%s already defined line %s</t>
   </si>
   <si>
+    <t>Used when a function / variable is redefined.</t>
+  </si>
+  <si>
     <t>Access to member %r before its definition line %s</t>
   </si>
   <si>
+    <t>Used when an instance member is accessed before it's actually assigned.</t>
+  </si>
+  <si>
     <t>Assigning to function call which doesn't return</t>
   </si>
   <si>
     <t>Return outside function</t>
   </si>
   <si>
+    <t>Used when a return statement is found outside a function or method.</t>
+  </si>
+  <si>
     <t>Undefined variable %r</t>
   </si>
   <si>
+    <t>Used when an undefined variable is accessed.</t>
+  </si>
+  <si>
     <t>Using variable %r before assignment</t>
+  </si>
+  <si>
+    <t>Used when a variable is accessed before it's actually assigned.</t>
   </si>
   <si>
     <t>?
@@ -147,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -155,6 +197,15 @@
       <u val="none"/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -195,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,6 +291,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -284,11 +348,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
@@ -310,7 +387,13 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" applyFont="1" fontId="3">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="4">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="8" fontId="0">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="9" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -327,323 +410,396 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="63.14"/>
+    <col min="1" customWidth="1" max="1" width="56.43"/>
+    <col min="2" customWidth="1" max="2" width="54.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="5" r="A1">
+      <c t="s" s="6" r="A1">
         <v>0</v>
       </c>
       <c s="2" r="B1"/>
+      <c s="2" r="C1"/>
     </row>
     <row r="2">
-      <c t="s" s="4" r="A2">
+      <c t="s" s="5" r="A2">
         <v>1</v>
       </c>
       <c t="s" s="3" r="B2">
         <v>2</v>
       </c>
-      <c s="1" r="C2"/>
-      <c t="s" r="D2">
+      <c t="s" s="3" r="C2">
         <v>3</v>
       </c>
+      <c s="1" r="D2"/>
+      <c t="s" r="E2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c t="s" s="4" r="A3">
-        <v>4</v>
+      <c t="s" s="5" r="A3">
+        <v>5</v>
       </c>
       <c t="s" s="3" r="B3">
-        <v>5</v>
-      </c>
-      <c s="1" r="C3"/>
-      <c t="s" r="D3">
         <v>6</v>
       </c>
+      <c t="s" s="3" r="C3">
+        <v>7</v>
+      </c>
+      <c s="1" r="D3"/>
+      <c t="s" r="E3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
-      <c t="s" s="6" r="A4">
-        <v>7</v>
-      </c>
-      <c t="s" s="3" r="B4">
-        <v>5</v>
-      </c>
-      <c s="1" r="C4"/>
+      <c t="s" s="7" r="A4">
+        <v>9</v>
+      </c>
+      <c s="3" r="B4"/>
+      <c t="s" s="3" r="C4">
+        <v>7</v>
+      </c>
+      <c s="1" r="D4"/>
     </row>
     <row r="5">
-      <c t="s" s="6" r="A5">
-        <v>8</v>
-      </c>
-      <c t="s" s="3" r="B5">
-        <v>5</v>
-      </c>
-      <c s="1" r="C5"/>
+      <c t="s" s="7" r="A5">
+        <v>10</v>
+      </c>
+      <c s="3" r="B5"/>
+      <c t="s" s="3" r="C5">
+        <v>7</v>
+      </c>
+      <c s="1" r="D5"/>
     </row>
     <row r="6">
-      <c s="7" r="A6"/>
-      <c s="7" r="B6"/>
+      <c s="8" r="A6"/>
+      <c s="8" r="B6"/>
+      <c s="8" r="C6"/>
     </row>
     <row r="7">
-      <c t="s" s="5" r="A7">
-        <v>9</v>
-      </c>
-      <c t="s" r="B7">
-        <v>10</v>
+      <c t="s" s="6" r="A7">
+        <v>11</v>
+      </c>
+      <c s="2" r="B7"/>
+      <c t="s" r="C7">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="4" r="A8">
-        <v>11</v>
-      </c>
-      <c s="1" r="B8"/>
+        <v>13</v>
+      </c>
+      <c s="9" r="B8"/>
+      <c s="1" r="C8"/>
     </row>
     <row r="9">
       <c t="s" s="4" r="A9">
-        <v>12</v>
-      </c>
-      <c s="1" r="B9"/>
+        <v>14</v>
+      </c>
+      <c s="9" r="B9"/>
+      <c s="1" r="C9"/>
     </row>
     <row r="10">
       <c t="s" s="4" r="A10">
-        <v>13</v>
-      </c>
-      <c s="1" r="B10"/>
+        <v>15</v>
+      </c>
+      <c s="9" r="B10"/>
+      <c s="1" r="C10"/>
     </row>
     <row r="11">
       <c t="s" s="4" r="A11">
-        <v>14</v>
-      </c>
-      <c s="1" r="B11"/>
+        <v>16</v>
+      </c>
+      <c s="9" r="B11"/>
+      <c s="1" r="C11"/>
     </row>
     <row r="12">
-      <c s="7" r="A12"/>
+      <c s="8" r="A12"/>
+      <c s="8" r="B12"/>
     </row>
     <row r="13">
-      <c t="s" s="5" r="A13">
-        <v>15</v>
+      <c t="s" s="6" r="A13">
+        <v>17</v>
       </c>
       <c s="2" r="B13"/>
+      <c s="2" r="C13"/>
     </row>
     <row r="14">
-      <c t="s" s="4" r="A14">
-        <v>16</v>
+      <c t="s" s="5" r="A14">
+        <v>18</v>
       </c>
       <c t="s" s="3" r="B14">
-        <v>2</v>
-      </c>
-      <c s="1" r="C14"/>
+        <v>19</v>
+      </c>
+      <c t="s" s="3" r="C14">
+        <v>3</v>
+      </c>
+      <c s="1" r="D14"/>
     </row>
     <row r="15">
-      <c t="s" s="4" r="A15">
-        <v>17</v>
+      <c t="s" s="5" r="A15">
+        <v>20</v>
       </c>
       <c t="s" s="3" r="B15">
-        <v>18</v>
-      </c>
-      <c s="1" r="C15"/>
+        <v>21</v>
+      </c>
+      <c t="s" s="3" r="C15">
+        <v>22</v>
+      </c>
+      <c s="1" r="D15"/>
     </row>
     <row r="16">
-      <c t="s" s="4" r="A16">
-        <v>19</v>
-      </c>
-      <c t="s" s="3" r="B16">
-        <v>5</v>
-      </c>
-      <c s="1" r="C16"/>
+      <c t="s" s="5" r="A16">
+        <v>23</v>
+      </c>
+      <c s="3" r="B16"/>
+      <c t="s" s="3" r="C16">
+        <v>7</v>
+      </c>
+      <c s="1" r="D16"/>
     </row>
     <row r="17">
-      <c t="s" s="4" r="A17">
-        <v>20</v>
-      </c>
-      <c s="3" r="B17">
+      <c t="s" s="5" r="A17">
+        <v>24</v>
+      </c>
+      <c t="s" s="3" r="B17">
+        <v>25</v>
+      </c>
+      <c s="3" r="C17">
         <v>0</v>
       </c>
-      <c s="1" r="C17"/>
+      <c s="1" r="D17"/>
     </row>
     <row r="18">
-      <c t="s" s="4" r="A18">
+      <c t="s" s="5" r="A18">
+        <v>26</v>
+      </c>
+      <c t="s" s="3" r="B18">
+        <v>27</v>
+      </c>
+      <c t="s" s="3" r="C18">
+        <v>12</v>
+      </c>
+      <c s="1" r="D18"/>
+    </row>
+    <row r="19">
+      <c t="s" s="5" r="A19">
+        <v>28</v>
+      </c>
+      <c t="s" s="3" r="B19">
+        <v>29</v>
+      </c>
+      <c t="s" s="3" r="C19">
+        <v>30</v>
+      </c>
+      <c s="1" r="D19"/>
+    </row>
+    <row r="20">
+      <c t="s" s="5" r="A20">
+        <v>31</v>
+      </c>
+      <c t="s" s="3" r="B20">
+        <v>32</v>
+      </c>
+      <c t="s" s="3" r="C20">
+        <v>30</v>
+      </c>
+      <c s="1" r="D20"/>
+    </row>
+    <row r="21">
+      <c t="s" s="5" r="A21">
+        <v>33</v>
+      </c>
+      <c t="s" s="3" r="B21">
+        <v>6</v>
+      </c>
+      <c t="s" s="3" r="C21">
+        <v>3</v>
+      </c>
+      <c s="1" r="D21"/>
+    </row>
+    <row r="22">
+      <c t="s" s="7" r="A22">
+        <v>34</v>
+      </c>
+      <c s="3" r="B22"/>
+      <c t="s" s="3" r="C22">
+        <v>3</v>
+      </c>
+      <c s="1" r="D22"/>
+    </row>
+    <row r="23">
+      <c t="s" s="7" r="A23">
+        <v>35</v>
+      </c>
+      <c s="3" r="B23"/>
+      <c t="s" s="3" r="C23">
+        <v>7</v>
+      </c>
+      <c s="1" r="D23"/>
+    </row>
+    <row r="24">
+      <c s="8" r="A24"/>
+      <c s="8" r="B24"/>
+      <c s="8" r="C24"/>
+    </row>
+    <row r="25">
+      <c t="s" s="6" r="A25">
+        <v>36</v>
+      </c>
+      <c s="2" r="B25"/>
+      <c s="2" r="C25"/>
+    </row>
+    <row r="26">
+      <c t="s" s="5" r="A26">
+        <v>37</v>
+      </c>
+      <c t="s" s="3" r="B26">
+        <v>38</v>
+      </c>
+      <c t="s" s="3" r="C26">
+        <v>3</v>
+      </c>
+      <c s="1" r="D26"/>
+    </row>
+    <row r="27">
+      <c t="s" s="5" r="A27">
+        <v>39</v>
+      </c>
+      <c t="s" s="3" r="B27">
+        <v>40</v>
+      </c>
+      <c t="s" s="3" r="C27">
+        <v>7</v>
+      </c>
+      <c s="1" r="D27"/>
+    </row>
+    <row r="28">
+      <c t="s" s="5" r="A28">
+        <v>41</v>
+      </c>
+      <c t="s" s="3" r="B28">
+        <v>42</v>
+      </c>
+      <c t="s" s="3" r="C28">
+        <v>3</v>
+      </c>
+      <c s="1" r="D28"/>
+    </row>
+    <row r="29">
+      <c t="s" s="5" r="A29">
+        <v>43</v>
+      </c>
+      <c t="s" s="3" r="B29">
         <v>21</v>
       </c>
-      <c t="s" s="3" r="B18">
-        <v>10</v>
-      </c>
-      <c s="1" r="C18"/>
-    </row>
-    <row r="19">
-      <c t="s" s="4" r="A19">
-        <v>22</v>
-      </c>
-      <c t="s" s="3" r="B19">
-        <v>23</v>
-      </c>
-      <c s="1" r="C19"/>
-    </row>
-    <row r="20">
-      <c t="s" s="4" r="A20">
-        <v>24</v>
-      </c>
-      <c t="s" s="3" r="B20">
-        <v>23</v>
-      </c>
-      <c s="1" r="C20"/>
-    </row>
-    <row r="21">
-      <c t="s" s="4" r="A21">
-        <v>25</v>
-      </c>
-      <c t="s" s="3" r="B21">
-        <v>2</v>
-      </c>
-      <c s="1" r="C21"/>
-    </row>
-    <row r="22">
-      <c t="s" s="6" r="A22">
-        <v>26</v>
-      </c>
-      <c t="s" s="3" r="B22">
-        <v>2</v>
-      </c>
-      <c s="1" r="C22"/>
-    </row>
-    <row r="23">
-      <c t="s" s="6" r="A23">
-        <v>27</v>
-      </c>
-      <c t="s" s="3" r="B23">
-        <v>5</v>
-      </c>
-      <c s="1" r="C23"/>
-    </row>
-    <row r="24">
-      <c s="7" r="A24"/>
-      <c s="7" r="B24"/>
-    </row>
-    <row r="25">
-      <c t="s" s="5" r="A25">
-        <v>28</v>
-      </c>
-      <c s="2" r="B25"/>
-    </row>
-    <row r="26">
-      <c t="s" s="4" r="A26">
-        <v>29</v>
-      </c>
-      <c t="s" s="3" r="B26">
-        <v>2</v>
-      </c>
-      <c s="1" r="C26"/>
-    </row>
-    <row r="27">
-      <c t="s" s="4" r="A27">
+      <c t="s" s="3" r="C29">
+        <v>3</v>
+      </c>
+      <c s="1" r="D29"/>
+    </row>
+    <row r="30">
+      <c t="s" s="5" r="A30">
+        <v>44</v>
+      </c>
+      <c t="s" s="3" r="B30">
+        <v>45</v>
+      </c>
+      <c t="s" s="3" r="C30">
         <v>30</v>
       </c>
-      <c t="s" s="3" r="B27">
-        <v>5</v>
-      </c>
-      <c s="1" r="C27"/>
-    </row>
-    <row r="28">
-      <c t="s" s="4" r="A28">
-        <v>31</v>
-      </c>
-      <c t="s" s="3" r="B28">
-        <v>2</v>
-      </c>
-      <c s="1" r="C28"/>
-    </row>
-    <row r="29">
-      <c t="s" s="4" r="A29">
-        <v>32</v>
-      </c>
-      <c t="s" s="3" r="B29">
-        <v>2</v>
-      </c>
-      <c s="1" r="C29"/>
-    </row>
-    <row r="30">
-      <c t="s" s="4" r="A30">
-        <v>33</v>
-      </c>
-      <c t="s" s="3" r="B30">
-        <v>23</v>
-      </c>
-      <c s="1" r="C30"/>
+      <c s="1" r="D30"/>
     </row>
     <row r="31">
-      <c t="s" s="4" r="A31">
-        <v>34</v>
-      </c>
-      <c s="3" r="B31">
+      <c t="s" s="5" r="A31">
+        <v>46</v>
+      </c>
+      <c t="s" s="3" r="B31">
+        <v>47</v>
+      </c>
+      <c s="3" r="C31">
         <v>0</v>
       </c>
-      <c s="1" r="C31"/>
+      <c s="1" r="D31"/>
     </row>
     <row r="32">
-      <c t="s" s="4" r="A32">
-        <v>35</v>
+      <c t="s" s="5" r="A32">
+        <v>48</v>
       </c>
       <c t="s" s="3" r="B32">
-        <v>36</v>
-      </c>
-      <c s="1" r="C32"/>
+        <v>49</v>
+      </c>
+      <c t="s" s="3" r="C32">
+        <v>50</v>
+      </c>
+      <c s="1" r="D32"/>
     </row>
     <row r="33">
-      <c s="7" r="A33"/>
-      <c s="7" r="B33"/>
+      <c s="8" r="A33"/>
+      <c s="8" r="B33"/>
+      <c s="8" r="C33"/>
     </row>
     <row r="34">
-      <c t="s" s="5" r="A34">
-        <v>37</v>
+      <c t="s" s="6" r="A34">
+        <v>51</v>
       </c>
       <c s="2" r="B34"/>
+      <c s="2" r="C34"/>
     </row>
     <row r="35">
-      <c t="s" s="6" r="A35">
-        <v>38</v>
-      </c>
-      <c t="s" s="3" r="B35">
-        <v>5</v>
-      </c>
-      <c s="1" r="C35"/>
+      <c t="s" s="7" r="A35">
+        <v>52</v>
+      </c>
+      <c s="3" r="B35"/>
+      <c t="s" s="3" r="C35">
+        <v>7</v>
+      </c>
+      <c s="1" r="D35"/>
     </row>
     <row r="36">
-      <c t="s" s="6" r="A36">
-        <v>39</v>
-      </c>
-      <c t="s" s="3" r="B36">
-        <v>5</v>
-      </c>
-      <c s="1" r="C36"/>
+      <c t="s" s="7" r="A36">
+        <v>53</v>
+      </c>
+      <c s="3" r="B36"/>
+      <c t="s" s="3" r="C36">
+        <v>7</v>
+      </c>
+      <c s="1" r="D36"/>
     </row>
     <row r="37">
-      <c t="s" s="6" r="A37">
-        <v>40</v>
-      </c>
-      <c t="s" s="3" r="B37">
-        <v>5</v>
-      </c>
-      <c s="1" r="C37"/>
+      <c t="s" s="7" r="A37">
+        <v>54</v>
+      </c>
+      <c s="3" r="B37"/>
+      <c t="s" s="3" r="C37">
+        <v>7</v>
+      </c>
+      <c s="1" r="D37"/>
     </row>
     <row r="38">
-      <c t="s" s="6" r="A38">
-        <v>41</v>
-      </c>
-      <c t="s" s="3" r="B38">
-        <v>5</v>
-      </c>
-      <c s="1" r="C38"/>
+      <c t="s" s="7" r="A38">
+        <v>55</v>
+      </c>
+      <c s="3" r="B38"/>
+      <c t="s" s="3" r="C38">
+        <v>7</v>
+      </c>
+      <c s="1" r="D38"/>
     </row>
     <row r="39">
-      <c t="s" s="6" r="A39">
-        <v>42</v>
-      </c>
-      <c t="s" s="3" r="B39">
-        <v>5</v>
-      </c>
-      <c s="1" r="C39"/>
+      <c t="s" s="7" r="A39">
+        <v>56</v>
+      </c>
+      <c s="3" r="B39"/>
+      <c t="s" s="3" r="C39">
+        <v>7</v>
+      </c>
+      <c s="1" r="D39"/>
     </row>
     <row r="40">
-      <c s="7" r="A40"/>
-      <c s="7" r="B40"/>
+      <c s="8" r="A40"/>
+      <c s="8" r="B40"/>
+      <c s="8" r="C40"/>
     </row>
   </sheetData>
 </worksheet>
